--- a/TestData/LV_TMTI0054683_VerificationOfNewFieldAssociatedOpportunityAvailabiltyAndFunctionalityOnFROpportunityAndEngagementPage.xlsx
+++ b/TestData/LV_TMTI0054683_VerificationOfNewFieldAssociatedOpportunityAvailabiltyAndFunctionalityOnFROpportunityAndEngagementPage.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6611F104-A45E-40FB-82EE-D9EBB54486BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE8E966-36C6-4BF8-9201-7CD163A5E0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="708" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
+    <sheet name="Users" sheetId="2" r:id="rId1"/>
     <sheet name="AppName" sheetId="6" r:id="rId2"/>
-    <sheet name="ModuleName" sheetId="7" r:id="rId3"/>
-    <sheet name="Users" sheetId="2" r:id="rId4"/>
+    <sheet name="AddOpportunity" sheetId="1" r:id="rId3"/>
+    <sheet name="ModuleName" sheetId="7" r:id="rId4"/>
     <sheet name="AddContact" sheetId="3" r:id="rId5"/>
     <sheet name="AssociatedOpp" sheetId="4" r:id="rId6"/>
     <sheet name="AssociatedEng" sheetId="5" r:id="rId7"/>
@@ -1000,243 +1000,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.33203125" customWidth="1"/>
-    <col min="29" max="29" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="R2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="U2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V2" t="s">
-        <v>58</v>
-      </c>
-      <c r="W2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>60</v>
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1248,14 +1050,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -1266,6 +1068,247 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" customWidth="1"/>
+    <col min="29" max="29" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="U2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E1B0EF-A5E2-4F8E-85E1-C720437C78C1}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -1273,71 +1316,28 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1349,17 +1349,17 @@
       <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -1425,26 +1425,26 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="5"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -1464,22 +1464,22 @@
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>67</v>
       </c>
